--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Greme\Ingjinjerike\173-4-Greme-Ademi\3-Katet\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\390-3-Fer-Baftia-leg\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B28F84-0AA3-4376-B563-A1CDF6420D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="645" yWindow="0" windowWidth="28155" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Y</t>
   </si>
@@ -84,28 +79,31 @@
     <t>Terasa</t>
   </si>
   <si>
-    <t>PERDHESA</t>
-  </si>
-  <si>
     <t>Liridon Sejdiu</t>
   </si>
   <si>
-    <t>PERDHESA-TERAS</t>
+    <t>Kati 1</t>
   </si>
   <si>
-    <t>KATI1</t>
+    <t>kati1</t>
   </si>
   <si>
-    <t>KATI1-TERASA</t>
+    <t>perdhese</t>
   </si>
   <si>
-    <t>Kati 1</t>
+    <t>bodrum</t>
+  </si>
+  <si>
+    <t>Bodrumi</t>
+  </si>
+  <si>
+    <t>kati1_terasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -424,11 +422,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -439,16 +474,16 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,8 +492,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +501,12 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,7 +519,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +561,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -551,7 +594,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,7 +798,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Zona Kadastrale: Greme</a:t>
+            <a:t>Zona Kadastrale: Ferizaj</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -824,7 +873,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 00173-4</a:t>
+            <a:t>: 00390-3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1191,11 +1240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="B26:I33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,115 +1260,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1330,490 +1379,560 @@
       <c r="I12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5">
-        <v>7512915.9336999999</v>
+        <v>7512567.7079999996</v>
       </c>
       <c r="D15" s="5">
-        <v>4688194.9045000002</v>
+        <v>4693420.5109999999</v>
       </c>
       <c r="E15" s="10">
-        <v>601.94100000000003</v>
+        <v>623.25</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="44">
-        <v>72.028000000000006</v>
+      <c r="I15" s="46">
+        <v>140.46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7512566.818</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4693412.6420999998</v>
+      </c>
+      <c r="E16" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>10</v>
       </c>
-      <c r="C16" s="5">
-        <v>7512912.4574999996</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4688193.57</v>
-      </c>
-      <c r="E16" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C17" s="5">
+        <v>7512566.4579999996</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4693410.9630000005</v>
+      </c>
+      <c r="E17" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7512567.6390000004</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4693409.1330000004</v>
+      </c>
+      <c r="E18" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7512566.9270000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4693416.7220000001</v>
+      </c>
+      <c r="E19" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7512564.9620000003</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4693415.4289999995</v>
+      </c>
+      <c r="E20" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7512570.8959999997</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4693408.5760000004</v>
+      </c>
+      <c r="E21" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
         <v>15</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="C22" s="5">
+        <v>7512570.6279999996</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4693406.8830000004</v>
+      </c>
+      <c r="E22" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7512579.602</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4693418.1940000001</v>
+      </c>
+      <c r="E23" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7512577.6090000002</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4693407.3449999997</v>
+      </c>
+      <c r="E24" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7512574.0970000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4693407.9819999998</v>
+      </c>
+      <c r="E25" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7512573.75</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4693406.2769999998</v>
+      </c>
+      <c r="E26" s="10">
+        <v>623.25</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="14">
+        <f>SUM(I15:I25)</f>
+        <v>140.46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5">
-        <v>7512912.7120000003</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4688192.9069999997</v>
-      </c>
-      <c r="E17" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="G29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5">
+        <v>7510640.0105999997</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4693477.5455</v>
+      </c>
+      <c r="E30" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="35">
+        <v>79.843000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>54</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7510632.9046</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4693473.3550000004</v>
+      </c>
+      <c r="E31" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7510639.7030999996</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4693477.3641999997</v>
+      </c>
+      <c r="E32" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5">
+        <v>7510644.9709999999</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4693469.2079999996</v>
+      </c>
+      <c r="E33" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5">
+        <v>7510641.0379999997</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4693466.8565999996</v>
+      </c>
+      <c r="E34" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7510641.0789999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4693466.79</v>
+      </c>
+      <c r="E35" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5">
+        <v>7510639.2709999997</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4693465.727</v>
+      </c>
+      <c r="E36" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>71</v>
+      </c>
+      <c r="C37" s="5">
+        <v>7510639.2317000004</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4693465.7909000004</v>
+      </c>
+      <c r="E37" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>72</v>
+      </c>
+      <c r="C38" s="5">
+        <v>7510638.0011</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4693465.0647999998</v>
+      </c>
+      <c r="E38" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="35"/>
+      <c r="H38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5">
-        <v>7512908.3671000004</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4688191.2390000001</v>
-      </c>
-      <c r="E18" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="M18">
-        <v>78.774000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5">
-        <v>7512905.0319999997</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4688199.3990000002</v>
-      </c>
-      <c r="E19" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="M19">
-        <v>4.4909999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
-        <v>167</v>
-      </c>
-      <c r="C20" s="5">
-        <v>7512912.8032999998</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4688202.5635000002</v>
-      </c>
-      <c r="E20" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="M20">
-        <f>SUM(M18:M19)</f>
-        <v>83.265000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7512916.9979999997</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4688192.1320000002</v>
-      </c>
-      <c r="E21" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5">
-        <v>7512911.5231999997</v>
-      </c>
-      <c r="D22" s="5">
-        <v>4688192.4506000001</v>
-      </c>
-      <c r="E22" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="10">
-        <v>14.036</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="I38" s="10">
+        <v>7.6779999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>41</v>
+      </c>
+      <c r="C39" s="5">
+        <v>7510632.3836000003</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4693474.2024999997</v>
+      </c>
+      <c r="E39" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>42</v>
+      </c>
+      <c r="C40" s="5">
+        <v>7510639.2210999997</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4693478.1814999999</v>
+      </c>
+      <c r="E40" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5">
-        <v>7512912.3669999996</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4688190.3370000003</v>
-      </c>
-      <c r="E23" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="15">
-        <f>SUM(I15:I22)</f>
-        <v>86.064000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5">
-        <v>7512912.8032999998</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4688202.5635000002</v>
-      </c>
-      <c r="E27" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="44">
-        <v>78.774000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5">
-        <v>7512912.7340000002</v>
-      </c>
-      <c r="D28" s="5">
-        <v>4688191.807</v>
-      </c>
-      <c r="E28" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5">
-        <v>7512912.3449999997</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4688192.7699999996</v>
-      </c>
-      <c r="E29" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5">
-        <v>7512908.3671000004</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4688191.2390000001</v>
-      </c>
-      <c r="E30" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5">
-        <v>7512905.0429999996</v>
-      </c>
-      <c r="D31" s="5">
-        <v>4688199.4000000004</v>
-      </c>
-      <c r="E31" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5">
-        <v>7512916.5610999996</v>
-      </c>
-      <c r="D32" s="5">
-        <v>4688193.3693000004</v>
-      </c>
-      <c r="E32" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="10">
-        <v>4.4909999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
-        <v>25</v>
-      </c>
-      <c r="C33" s="5">
-        <v>7512908.7709999997</v>
-      </c>
-      <c r="D33" s="5">
-        <v>4688190.2439999999</v>
-      </c>
-      <c r="E33" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="15">
-        <f>SUM(I27:I32)</f>
-        <v>83.265000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="14">
+        <f>SUM(I30:I38)</f>
+        <v>87.521000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -1821,7 +1940,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -1829,104 +1948,294 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
         <v>2</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="21" t="s">
+      <c r="C44" s="5">
+        <v>7510632.9242000002</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4693473.3230999997</v>
+      </c>
+      <c r="E44" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="35">
+        <v>49.24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7510635.3864000002</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4693469.3180999998</v>
+      </c>
+      <c r="E45" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
         <v>4</v>
       </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
-    </row>
-    <row r="49" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28" t="s">
+      <c r="C46" s="5">
+        <v>7510639.2479999997</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4693477.085</v>
+      </c>
+      <c r="E46" s="10">
+        <v>645.89800000000002</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>114</v>
+      </c>
+      <c r="C47" s="5">
+        <v>7510644.2862</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4693474.5017999997</v>
+      </c>
+      <c r="E47" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>120</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7510641.7368999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4693478.7723000003</v>
+      </c>
+      <c r="E48" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>121</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7510639.6945000002</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4693477.5827000001</v>
+      </c>
+      <c r="E49" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <v>122</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7510639.7977999998</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4693477.4052999998</v>
+      </c>
+      <c r="E50" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
+        <v>123</v>
+      </c>
+      <c r="C51" s="5">
+        <v>7510639.2822000002</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4693477.0263</v>
+      </c>
+      <c r="E51" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="14">
+        <f>SUM(I44:I49)</f>
+        <v>49.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32">
         <v>140</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K52" s="1"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="H15:H21"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="J56:K57"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="H56:I57"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="G30:G40"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="I44:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\390-3-Fer-Baftia-leg\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B28F84-0AA3-4376-B563-A1CDF6420D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E57C00-07AD-4746-B203-E98419B51EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="0" windowWidth="28155" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="120" windowWidth="28155" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$93</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>Y</t>
   </si>
@@ -1241,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="B28:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>10</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>11</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>12</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>13</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>14</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>15</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>47</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>50</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>51</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>56</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>140.46</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1663,273 +1663,284 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I28" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>7512567.7079999996</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4693420.5109999999</v>
+      </c>
+      <c r="E29" s="10">
+        <v>620.54100000000005</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="46">
+        <v>140.46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5">
-        <v>7510640.0105999997</v>
+        <v>7512566.818</v>
       </c>
       <c r="D30" s="5">
-        <v>4693477.5455</v>
+        <v>4693412.6420999998</v>
       </c>
       <c r="E30" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="35">
-        <v>79.843000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C31" s="5">
-        <v>7510632.9046</v>
+        <v>7512566.4579999996</v>
       </c>
       <c r="D31" s="5">
-        <v>4693473.3550000004</v>
+        <v>4693410.9630000005</v>
       </c>
       <c r="E31" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C32" s="5">
-        <v>7510639.7030999996</v>
+        <v>7512567.6390000004</v>
       </c>
       <c r="D32" s="5">
-        <v>4693477.3641999997</v>
+        <v>4693409.1330000004</v>
       </c>
       <c r="E32" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="P32">
+        <v>620.54100000000005</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C33" s="5">
-        <v>7510644.9709999999</v>
+        <v>7512566.9270000001</v>
       </c>
       <c r="D33" s="5">
-        <v>4693469.2079999996</v>
+        <v>4693416.7220000001</v>
       </c>
       <c r="E33" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C34" s="5">
-        <v>7510641.0379999997</v>
+        <v>7512564.9620000003</v>
       </c>
       <c r="D34" s="5">
-        <v>4693466.8565999996</v>
+        <v>4693415.4289999995</v>
       </c>
       <c r="E34" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C35" s="5">
-        <v>7510641.0789999999</v>
+        <v>7512570.8959999997</v>
       </c>
       <c r="D35" s="5">
-        <v>4693466.79</v>
+        <v>4693408.5760000004</v>
       </c>
       <c r="E35" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C36" s="5">
-        <v>7510639.2709999997</v>
+        <v>7512570.6279999996</v>
       </c>
       <c r="D36" s="5">
-        <v>4693465.727</v>
+        <v>4693406.8830000004</v>
       </c>
       <c r="E36" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5">
-        <v>7510639.2317000004</v>
+        <v>7512579.602</v>
       </c>
       <c r="D37" s="5">
-        <v>4693465.7909000004</v>
+        <v>4693418.1940000001</v>
       </c>
       <c r="E37" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C38" s="5">
-        <v>7510638.0011</v>
+        <v>7512577.6090000002</v>
       </c>
       <c r="D38" s="5">
-        <v>4693465.0647999998</v>
+        <v>4693407.3449999997</v>
       </c>
       <c r="E38" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G38" s="35"/>
-      <c r="H38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="10">
-        <v>7.6779999999999999</v>
-      </c>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C39" s="5">
-        <v>7510632.3836000003</v>
+        <v>7512574.0970000001</v>
       </c>
       <c r="D39" s="5">
-        <v>4693474.2024999997</v>
+        <v>4693407.9819999998</v>
       </c>
       <c r="E39" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" s="35"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5">
-        <v>7510639.2210999997</v>
+        <v>7512573.75</v>
       </c>
       <c r="D40" s="5">
-        <v>4693478.1814999999</v>
+        <v>4693406.2769999998</v>
       </c>
       <c r="E40" s="10">
-        <v>651.38900000000001</v>
+        <v>620.54100000000005</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I40" s="14">
-        <f>SUM(I30:I38)</f>
-        <v>87.521000000000001</v>
+        <f>SUM(I29:I39)</f>
+        <v>140.46</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1949,203 +1960,78 @@
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5">
-        <v>7510632.9242000002</v>
-      </c>
-      <c r="D44" s="5">
-        <v>4693473.3230999997</v>
-      </c>
-      <c r="E44" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="35">
-        <v>49.24</v>
-      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
-        <v>3</v>
-      </c>
-      <c r="C45" s="5">
-        <v>7510635.3864000002</v>
-      </c>
-      <c r="D45" s="5">
-        <v>4693469.3180999998</v>
-      </c>
-      <c r="E45" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="11">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5">
-        <v>7510639.2479999997</v>
-      </c>
-      <c r="D46" s="5">
-        <v>4693477.085</v>
-      </c>
-      <c r="E46" s="10">
-        <v>645.89800000000002</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="11">
-        <v>114</v>
-      </c>
-      <c r="C47" s="5">
-        <v>7510644.2862</v>
-      </c>
-      <c r="D47" s="5">
-        <v>4693474.5017999997</v>
-      </c>
-      <c r="E47" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
-        <v>120</v>
-      </c>
-      <c r="C48" s="5">
-        <v>7510641.7368999999</v>
-      </c>
-      <c r="D48" s="5">
-        <v>4693478.7723000003</v>
-      </c>
-      <c r="E48" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="11">
-        <v>121</v>
-      </c>
-      <c r="C49" s="5">
-        <v>7510639.6945000002</v>
-      </c>
-      <c r="D49" s="5">
-        <v>4693477.5827000001</v>
-      </c>
-      <c r="E49" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="11">
-        <v>122</v>
-      </c>
-      <c r="C50" s="5">
-        <v>7510639.7977999998</v>
-      </c>
-      <c r="D50" s="5">
-        <v>4693477.4052999998</v>
-      </c>
-      <c r="E50" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="11">
-        <v>123</v>
-      </c>
-      <c r="C51" s="5">
-        <v>7510639.2822000002</v>
-      </c>
-      <c r="D51" s="5">
-        <v>4693477.0263</v>
-      </c>
-      <c r="E51" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="14">
-        <f>SUM(I44:I49)</f>
-        <v>49.24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -2153,7 +2039,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2161,81 +2047,662 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="11">
+        <v>53</v>
+      </c>
+      <c r="C66" s="5">
+        <v>7510640.0105999997</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4693477.5455</v>
+      </c>
+      <c r="E66" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="35">
+        <v>79.843000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="11">
+        <v>54</v>
+      </c>
+      <c r="C67" s="5">
+        <v>7510632.9046</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4693473.3550000004</v>
+      </c>
+      <c r="E67" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="11">
+        <v>65</v>
+      </c>
+      <c r="C68" s="5">
+        <v>7510639.7030999996</v>
+      </c>
+      <c r="D68" s="5">
+        <v>4693477.3641999997</v>
+      </c>
+      <c r="E68" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="11">
+        <v>67</v>
+      </c>
+      <c r="C69" s="5">
+        <v>7510644.9709999999</v>
+      </c>
+      <c r="D69" s="5">
+        <v>4693469.2079999996</v>
+      </c>
+      <c r="E69" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="11">
+        <v>68</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7510641.0379999997</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4693466.8565999996</v>
+      </c>
+      <c r="E70" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="11">
+        <v>69</v>
+      </c>
+      <c r="C71" s="5">
+        <v>7510641.0789999999</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4693466.79</v>
+      </c>
+      <c r="E71" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="11">
+        <v>70</v>
+      </c>
+      <c r="C72" s="5">
+        <v>7510639.2709999997</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4693465.727</v>
+      </c>
+      <c r="E72" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="11">
+        <v>71</v>
+      </c>
+      <c r="C73" s="5">
+        <v>7510639.2317000004</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4693465.7909000004</v>
+      </c>
+      <c r="E73" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="11">
+        <v>72</v>
+      </c>
+      <c r="C74" s="5">
+        <v>7510638.0011</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4693465.0647999998</v>
+      </c>
+      <c r="E74" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="35"/>
+      <c r="H74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="10">
+        <v>7.6779999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="11">
+        <v>41</v>
+      </c>
+      <c r="C75" s="5">
+        <v>7510632.3836000003</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4693474.2024999997</v>
+      </c>
+      <c r="E75" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="35"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="11">
+        <v>42</v>
+      </c>
+      <c r="C76" s="5">
+        <v>7510639.2210999997</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4693478.1814999999</v>
+      </c>
+      <c r="E76" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="35"/>
+      <c r="H76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="14">
+        <f>SUM(I66:I74)</f>
+        <v>87.521000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="11">
         <v>2</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="26" t="s">
+      <c r="C80" s="5">
+        <v>7510632.9242000002</v>
+      </c>
+      <c r="D80" s="5">
+        <v>4693473.3230999997</v>
+      </c>
+      <c r="E80" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="35">
+        <v>49.24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="11">
+        <v>3</v>
+      </c>
+      <c r="C81" s="5">
+        <v>7510635.3864000002</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4693469.3180999998</v>
+      </c>
+      <c r="E81" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="11">
+        <v>4</v>
+      </c>
+      <c r="C82" s="5">
+        <v>7510639.2479999997</v>
+      </c>
+      <c r="D82" s="5">
+        <v>4693477.085</v>
+      </c>
+      <c r="E82" s="10">
+        <v>645.89800000000002</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="11">
+        <v>114</v>
+      </c>
+      <c r="C83" s="5">
+        <v>7510644.2862</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4693474.5017999997</v>
+      </c>
+      <c r="E83" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="11">
+        <v>120</v>
+      </c>
+      <c r="C84" s="5">
+        <v>7510641.7368999999</v>
+      </c>
+      <c r="D84" s="5">
+        <v>4693478.7723000003</v>
+      </c>
+      <c r="E84" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="11">
+        <v>121</v>
+      </c>
+      <c r="C85" s="5">
+        <v>7510639.6945000002</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4693477.5827000001</v>
+      </c>
+      <c r="E85" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="11">
+        <v>122</v>
+      </c>
+      <c r="C86" s="5">
+        <v>7510639.7977999998</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4693477.4052999998</v>
+      </c>
+      <c r="E86" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="35"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="11">
+        <v>123</v>
+      </c>
+      <c r="C87" s="5">
+        <v>7510639.2822000002</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4693477.0263</v>
+      </c>
+      <c r="E87" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="35"/>
+      <c r="H87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="14">
+        <f>SUM(I80:I85)</f>
+        <v>49.24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="22" t="s">
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="29" t="s">
+      <c r="I92" s="23"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32">
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="32">
         <v>140</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K60" s="1"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="20"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="G15:G26"/>
     <mergeCell ref="H15:H24"/>
     <mergeCell ref="I15:I24"/>
-    <mergeCell ref="J56:K57"/>
+    <mergeCell ref="J92:K93"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H56:I57"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="G30:G40"/>
-    <mergeCell ref="H30:H37"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="H92:I93"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="G66:G76"/>
+    <mergeCell ref="H66:H73"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="G80:G87"/>
+    <mergeCell ref="H80:H85"/>
+    <mergeCell ref="I80:I85"/>
+    <mergeCell ref="G29:G40"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="I29:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\390-3-Fer-Baftia-leg\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E57C00-07AD-4746-B203-E98419B51EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B2896-80C4-4919-B354-4AB29F85E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="120" windowWidth="28155" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="105" windowWidth="28185" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$97</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>Y</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Bodrumi</t>
   </si>
   <si>
-    <t>kati1_terasa</t>
+    <t>kati1-terasa</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="B28:I40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="B42:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>10</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>11</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>12</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>13</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>14</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>15</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>47</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>50</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>51</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>56</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>140.46</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1663,7 +1663,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>8</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>140.46</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>9</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>10</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>11</v>
       </c>
@@ -1774,9 +1774,6 @@
       <c r="G32" s="35"/>
       <c r="H32" s="47"/>
       <c r="I32" s="47"/>
-      <c r="P32">
-        <v>620.54100000000005</v>
-      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -1952,134 +1949,351 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="B42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="B43" s="11">
+        <v>16</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7512567.7079999996</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4693420.5109999999</v>
+      </c>
+      <c r="E43" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="10">
+        <v>137.65199999999999</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="B44" s="11">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5">
+        <v>7512566.9280000003</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4693416.716</v>
+      </c>
+      <c r="E44" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="35"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="B45" s="11">
+        <v>18</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7512564.9709999999</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4693415.4340000004</v>
+      </c>
+      <c r="E45" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="B46" s="11">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5">
+        <v>7512570.6279999996</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4693406.8830000004</v>
+      </c>
+      <c r="E46" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="B47" s="11">
+        <v>48</v>
+      </c>
+      <c r="C47" s="5">
+        <v>7512579.602</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4693418.1940000001</v>
+      </c>
+      <c r="E47" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7512574.0980000002</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4693407.9819999998</v>
+      </c>
+      <c r="E48" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>55</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7512573.75</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4693406.2769999998</v>
+      </c>
+      <c r="E49" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7512577.6090000002</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4693407.3449999997</v>
+      </c>
+      <c r="E50" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
+        <v>20</v>
+      </c>
+      <c r="C51" s="5">
+        <v>7512569.0159999998</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4693406.6330000004</v>
+      </c>
+      <c r="E51" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="10">
+        <v>9.4890000000000008</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="11">
+        <v>21</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7512566.2640000004</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4693410.7300000004</v>
+      </c>
+      <c r="E52" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="11">
+        <v>22</v>
+      </c>
+      <c r="C53" s="5">
+        <v>7512566.6765000001</v>
+      </c>
+      <c r="D53" s="5">
+        <v>4693412.8559999997</v>
+      </c>
+      <c r="E53" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="35"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="11">
+        <v>23</v>
+      </c>
+      <c r="C54" s="5">
+        <v>7512565.1150000002</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4693415.5279999999</v>
+      </c>
+      <c r="E54" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="10">
+        <v>5.3620000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="11">
+        <v>24</v>
+      </c>
+      <c r="C55" s="5">
+        <v>7512565.9359999998</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4693419.1229999997</v>
+      </c>
+      <c r="E55" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="11">
+        <v>25</v>
+      </c>
+      <c r="C56" s="5">
+        <v>7512567.6443999996</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4693420.2013999997</v>
+      </c>
+      <c r="E56" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="11">
+        <v>57</v>
+      </c>
+      <c r="C57" s="5">
+        <v>7512570.5334999999</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4693406.3592999997</v>
+      </c>
+      <c r="E57" s="10">
+        <v>625.87699999999995</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="14">
+        <f>SUM(I43:I56)</f>
+        <v>152.50299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2087,7 +2301,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2095,7 +2309,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -2103,7 +2317,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -2111,7 +2325,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -2119,7 +2333,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -2127,7 +2341,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -2135,404 +2349,89 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D83" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E83" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F83" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G83" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I83" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="11">
-        <v>53</v>
-      </c>
-      <c r="C66" s="5">
-        <v>7510640.0105999997</v>
-      </c>
-      <c r="D66" s="5">
-        <v>4693477.5455</v>
-      </c>
-      <c r="E66" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="35">
-        <v>79.843000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="11">
-        <v>54</v>
-      </c>
-      <c r="C67" s="5">
-        <v>7510632.9046</v>
-      </c>
-      <c r="D67" s="5">
-        <v>4693473.3550000004</v>
-      </c>
-      <c r="E67" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="11">
-        <v>65</v>
-      </c>
-      <c r="C68" s="5">
-        <v>7510639.7030999996</v>
-      </c>
-      <c r="D68" s="5">
-        <v>4693477.3641999997</v>
-      </c>
-      <c r="E68" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="11">
-        <v>67</v>
-      </c>
-      <c r="C69" s="5">
-        <v>7510644.9709999999</v>
-      </c>
-      <c r="D69" s="5">
-        <v>4693469.2079999996</v>
-      </c>
-      <c r="E69" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="11">
-        <v>68</v>
-      </c>
-      <c r="C70" s="5">
-        <v>7510641.0379999997</v>
-      </c>
-      <c r="D70" s="5">
-        <v>4693466.8565999996</v>
-      </c>
-      <c r="E70" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="11">
-        <v>69</v>
-      </c>
-      <c r="C71" s="5">
-        <v>7510641.0789999999</v>
-      </c>
-      <c r="D71" s="5">
-        <v>4693466.79</v>
-      </c>
-      <c r="E71" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="11">
-        <v>70</v>
-      </c>
-      <c r="C72" s="5">
-        <v>7510639.2709999997</v>
-      </c>
-      <c r="D72" s="5">
-        <v>4693465.727</v>
-      </c>
-      <c r="E72" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="11">
-        <v>71</v>
-      </c>
-      <c r="C73" s="5">
-        <v>7510639.2317000004</v>
-      </c>
-      <c r="D73" s="5">
-        <v>4693465.7909000004</v>
-      </c>
-      <c r="E73" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="11">
-        <v>72</v>
-      </c>
-      <c r="C74" s="5">
-        <v>7510638.0011</v>
-      </c>
-      <c r="D74" s="5">
-        <v>4693465.0647999998</v>
-      </c>
-      <c r="E74" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="35"/>
-      <c r="H74" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="10">
-        <v>7.6779999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="11">
-        <v>41</v>
-      </c>
-      <c r="C75" s="5">
-        <v>7510632.3836000003</v>
-      </c>
-      <c r="D75" s="5">
-        <v>4693474.2024999997</v>
-      </c>
-      <c r="E75" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="11">
-        <v>42</v>
-      </c>
-      <c r="C76" s="5">
-        <v>7510639.2210999997</v>
-      </c>
-      <c r="D76" s="5">
-        <v>4693478.1814999999</v>
-      </c>
-      <c r="E76" s="10">
-        <v>651.38900000000001</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="14">
-        <f>SUM(I66:I74)</f>
-        <v>87.521000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D78" s="6"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="11">
-        <v>2</v>
-      </c>
-      <c r="C80" s="5">
-        <v>7510632.9242000002</v>
-      </c>
-      <c r="D80" s="5">
-        <v>4693473.3230999997</v>
-      </c>
-      <c r="E80" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="35">
-        <v>49.24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="11">
-        <v>3</v>
-      </c>
-      <c r="C81" s="5">
-        <v>7510635.3864000002</v>
-      </c>
-      <c r="D81" s="5">
-        <v>4693469.3180999998</v>
-      </c>
-      <c r="E81" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="11">
-        <v>4</v>
-      </c>
-      <c r="C82" s="5">
-        <v>7510639.2479999997</v>
-      </c>
-      <c r="D82" s="5">
-        <v>4693477.085</v>
-      </c>
-      <c r="E82" s="10">
-        <v>645.89800000000002</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="11">
-        <v>114</v>
-      </c>
-      <c r="C83" s="5">
-        <v>7510644.2862</v>
-      </c>
-      <c r="D83" s="5">
-        <v>4693474.5017999997</v>
-      </c>
-      <c r="E83" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="C84" s="5">
-        <v>7510641.7368999999</v>
+        <v>7510632.9242000002</v>
       </c>
       <c r="D84" s="5">
-        <v>4693478.7723000003</v>
+        <v>4693473.3230999997</v>
       </c>
       <c r="E84" s="10">
         <v>645.94299999999998</v>
@@ -2540,19 +2439,25 @@
       <c r="F84" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
+      <c r="G84" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="35">
+        <v>49.24</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="C85" s="5">
-        <v>7510639.6945000002</v>
+        <v>7510635.3864000002</v>
       </c>
       <c r="D85" s="5">
-        <v>4693477.5827000001</v>
+        <v>4693469.3180999998</v>
       </c>
       <c r="E85" s="10">
         <v>645.94299999999998</v>
@@ -2566,33 +2471,33 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5">
-        <v>7510639.7977999998</v>
+        <v>7510639.2479999997</v>
       </c>
       <c r="D86" s="5">
-        <v>4693477.4052999998</v>
+        <v>4693477.085</v>
       </c>
       <c r="E86" s="10">
-        <v>645.94299999999998</v>
+        <v>645.89800000000002</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G86" s="35"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C87" s="5">
-        <v>7510639.2822000002</v>
+        <v>7510644.2862</v>
       </c>
       <c r="D87" s="5">
-        <v>4693477.0263</v>
+        <v>4693474.5017999997</v>
       </c>
       <c r="E87" s="10">
         <v>645.94299999999998</v>
@@ -2601,105 +2506,183 @@
         <v>19</v>
       </c>
       <c r="G87" s="35"/>
-      <c r="H87" s="14" t="s">
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="11">
+        <v>120</v>
+      </c>
+      <c r="C88" s="5">
+        <v>7510641.7368999999</v>
+      </c>
+      <c r="D88" s="5">
+        <v>4693478.7723000003</v>
+      </c>
+      <c r="E88" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="11">
+        <v>121</v>
+      </c>
+      <c r="C89" s="5">
+        <v>7510639.6945000002</v>
+      </c>
+      <c r="D89" s="5">
+        <v>4693477.5827000001</v>
+      </c>
+      <c r="E89" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="11">
+        <v>122</v>
+      </c>
+      <c r="C90" s="5">
+        <v>7510639.7977999998</v>
+      </c>
+      <c r="D90" s="5">
+        <v>4693477.4052999998</v>
+      </c>
+      <c r="E90" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="35"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="11">
+        <v>123</v>
+      </c>
+      <c r="C91" s="5">
+        <v>7510639.2822000002</v>
+      </c>
+      <c r="D91" s="5">
+        <v>4693477.0263</v>
+      </c>
+      <c r="E91" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="35"/>
+      <c r="H91" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="14">
-        <f>SUM(I80:I85)</f>
+      <c r="I91" s="14">
+        <f>SUM(I84:I89)</f>
         <v>49.24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D90" s="6"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="26" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="22" t="s">
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="23"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="18"/>
-    </row>
-    <row r="93" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="29" t="s">
+      <c r="I96" s="23"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="18"/>
+    </row>
+    <row r="97" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="32">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="32">
         <v>140</v>
       </c>
-      <c r="F93" s="33"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K96" s="1"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K100" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="G15:G26"/>
     <mergeCell ref="H15:H24"/>
     <mergeCell ref="I15:I24"/>
-    <mergeCell ref="J92:K93"/>
+    <mergeCell ref="J96:K97"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H92:I93"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="G66:G76"/>
-    <mergeCell ref="H66:H73"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="G80:G87"/>
-    <mergeCell ref="H80:H85"/>
-    <mergeCell ref="I80:I85"/>
+    <mergeCell ref="H96:I97"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="G43:G57"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="H84:H89"/>
+    <mergeCell ref="I84:I89"/>
     <mergeCell ref="G29:G40"/>
     <mergeCell ref="H29:H38"/>
     <mergeCell ref="I29:I38"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-390-3-Fer-Baftia-leg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\390-3-Fer-Baftia-leg\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B2896-80C4-4919-B354-4AB29F85E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3427DE-806E-4462-849C-CFDACE850554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="105" windowWidth="28185" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$79</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
   <si>
     <t>Y</t>
   </si>
@@ -91,13 +91,19 @@
     <t>perdhese</t>
   </si>
   <si>
-    <t>bodrum</t>
-  </si>
-  <si>
     <t>Bodrumi</t>
   </si>
   <si>
     <t>kati1-terasa</t>
+  </si>
+  <si>
+    <t>Nenkulmi</t>
+  </si>
+  <si>
+    <t>nenkulmi-terasa</t>
+  </si>
+  <si>
+    <t>Kati Nk</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -492,17 +498,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1241,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="B42:I57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H66" sqref="B60:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,115 +1260,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1379,28 +1379,28 @@
       <c r="I12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1420,13 +1420,13 @@
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="44">
         <v>140.46</v>
       </c>
     </row>
@@ -1446,9 +1446,9 @@
       <c r="F16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -1466,9 +1466,9 @@
       <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -1486,9 +1486,9 @@
       <c r="F18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -1506,9 +1506,9 @@
       <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -1526,9 +1526,9 @@
       <c r="F20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -1546,9 +1546,9 @@
       <c r="F21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -1566,9 +1566,9 @@
       <c r="F22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -1586,9 +1586,9 @@
       <c r="F23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -1606,9 +1606,9 @@
       <c r="F24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -1626,9 +1626,9 @@
       <c r="F25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -1646,11 +1646,11 @@
       <c r="F26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="14" t="s">
+      <c r="G26" s="33"/>
+      <c r="H26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <f>SUM(I15:I25)</f>
         <v>140.46</v>
       </c>
@@ -1664,28 +1664,28 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1703,15 +1703,15 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="46">
+        <v>19</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="44">
         <v>140.46</v>
       </c>
     </row>
@@ -1729,11 +1729,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
@@ -1749,11 +1749,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -1769,11 +1769,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -1789,11 +1789,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -1809,11 +1809,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -1829,11 +1829,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -1849,11 +1849,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -1869,11 +1869,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -1889,11 +1889,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
+        <v>19</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -1909,11 +1909,11 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -1929,13 +1929,13 @@
         <v>620.54100000000005</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="13">
         <f>SUM(I29:I39)</f>
         <v>140.46</v>
       </c>
@@ -1949,28 +1949,28 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       <c r="F43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="33" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="10" t="s">
@@ -2016,7 +2016,7 @@
       <c r="F44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="35"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="F45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="35"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
@@ -2056,7 +2056,7 @@
       <c r="F46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="35"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
@@ -2076,7 +2076,7 @@
       <c r="F47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="35"/>
+      <c r="G47" s="33"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
@@ -2096,7 +2096,7 @@
       <c r="F48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="35"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
@@ -2116,7 +2116,7 @@
       <c r="F49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="35"/>
+      <c r="G49" s="33"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
@@ -2136,7 +2136,7 @@
       <c r="F50" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="35"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
@@ -2154,9 +2154,9 @@
         <v>625.87699999999995</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="G51" s="33"/>
       <c r="H51" s="10" t="s">
         <v>14</v>
       </c>
@@ -2178,9 +2178,9 @@
         <v>625.87699999999995</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="G52" s="33"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
@@ -2198,9 +2198,9 @@
         <v>625.87699999999995</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="G53" s="33"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
@@ -2218,9 +2218,9 @@
         <v>625.87699999999995</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="G54" s="33"/>
       <c r="H54" s="10" t="s">
         <v>14</v>
       </c>
@@ -2242,9 +2242,9 @@
         <v>625.87699999999995</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="G55" s="33"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
     </row>
@@ -2262,9 +2262,9 @@
         <v>625.87699999999995</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="G56" s="33"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
     </row>
@@ -2282,13 +2282,13 @@
         <v>625.87699999999995</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="13">
         <f>SUM(I43:I56)</f>
         <v>152.50299999999999</v>
       </c>
@@ -2310,382 +2310,420 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="B60" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="B61" s="11">
+        <v>26</v>
+      </c>
+      <c r="C61" s="5">
+        <v>7512566.818</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4693412.6420999998</v>
+      </c>
+      <c r="E61" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="10">
+        <v>74.766999999999996</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="B62" s="11">
+        <v>27</v>
+      </c>
+      <c r="C62" s="5">
+        <v>7512566.9280000003</v>
+      </c>
+      <c r="D62" s="5">
+        <v>4693416.716</v>
+      </c>
+      <c r="E62" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="B63" s="11">
+        <v>28</v>
+      </c>
+      <c r="C63" s="5">
+        <v>7512564.9709999999</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4693415.4340000004</v>
+      </c>
+      <c r="E63" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D81" s="6"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D82" s="6"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="11">
+      <c r="B64" s="11">
+        <v>29</v>
+      </c>
+      <c r="C64" s="5">
+        <v>7512573.0193999996</v>
+      </c>
+      <c r="D64" s="5">
+        <v>4693419.4763000002</v>
+      </c>
+      <c r="E64" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="11">
+        <v>30</v>
+      </c>
+      <c r="C65" s="5">
+        <v>7512578.9255999997</v>
+      </c>
+      <c r="D65" s="5">
+        <v>4693414.5120000001</v>
+      </c>
+      <c r="E65" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="33"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="11">
+        <v>31</v>
+      </c>
+      <c r="C66" s="5">
+        <v>7512570.8959999997</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4693408.5760000004</v>
+      </c>
+      <c r="E66" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="11">
+        <v>33</v>
+      </c>
+      <c r="C67" s="5">
+        <v>7512576.2149</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4693418.8537999997</v>
+      </c>
+      <c r="E67" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="33"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="11">
+        <v>34</v>
+      </c>
+      <c r="C68" s="5">
+        <v>7512571.5197999999</v>
+      </c>
+      <c r="D68" s="5">
+        <v>4693411.7784000002</v>
+      </c>
+      <c r="E68" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="33"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="11">
+        <v>49</v>
+      </c>
+      <c r="C69" s="5">
+        <v>7512572.2898000004</v>
+      </c>
+      <c r="D69" s="5">
+        <v>4693415.7309999997</v>
+      </c>
+      <c r="E69" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="33"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="11">
+        <v>53</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7512574.0959999999</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4693407.983</v>
+      </c>
+      <c r="E70" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="33"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="11">
+        <v>54</v>
+      </c>
+      <c r="C71" s="5">
+        <v>7512574.7220000001</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4693411.1902000001</v>
+      </c>
+      <c r="E71" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="33"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="11">
+        <v>62</v>
+      </c>
+      <c r="C72" s="5">
+        <v>7512578.1980999997</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4693410.5515999999</v>
+      </c>
+      <c r="E72" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="11">
+        <v>76</v>
+      </c>
+      <c r="C73" s="5">
+        <v>7512575.4919999996</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4693415.1427999996</v>
+      </c>
+      <c r="E73" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="33"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="11">
+        <v>32</v>
+      </c>
+      <c r="C74" s="5">
+        <v>7512570.6279999996</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4693406.8830000004</v>
+      </c>
+      <c r="E74" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="33"/>
+      <c r="H74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="10">
+        <v>5.556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="11">
+        <v>63</v>
+      </c>
+      <c r="C75" s="5">
+        <v>7512573.75</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4693406.2769999998</v>
+      </c>
+      <c r="E75" s="10">
+        <v>629.13400000000001</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="33"/>
+      <c r="H75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="13">
+        <f>SUM(I61:I74)</f>
+        <v>80.322999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="5">
-        <v>7510632.9242000002</v>
-      </c>
-      <c r="D84" s="5">
-        <v>4693473.3230999997</v>
-      </c>
-      <c r="E84" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="35">
-        <v>49.24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="11">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="5">
-        <v>7510635.3864000002</v>
-      </c>
-      <c r="D85" s="5">
-        <v>4693469.3180999998</v>
-      </c>
-      <c r="E85" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="11">
-        <v>4</v>
-      </c>
-      <c r="C86" s="5">
-        <v>7510639.2479999997</v>
-      </c>
-      <c r="D86" s="5">
-        <v>4693477.085</v>
-      </c>
-      <c r="E86" s="10">
-        <v>645.89800000000002</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="11">
-        <v>114</v>
-      </c>
-      <c r="C87" s="5">
-        <v>7510644.2862</v>
-      </c>
-      <c r="D87" s="5">
-        <v>4693474.5017999997</v>
-      </c>
-      <c r="E87" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="11">
-        <v>120</v>
-      </c>
-      <c r="C88" s="5">
-        <v>7510641.7368999999</v>
-      </c>
-      <c r="D88" s="5">
-        <v>4693478.7723000003</v>
-      </c>
-      <c r="E88" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="11">
-        <v>121</v>
-      </c>
-      <c r="C89" s="5">
-        <v>7510639.6945000002</v>
-      </c>
-      <c r="D89" s="5">
-        <v>4693477.5827000001</v>
-      </c>
-      <c r="E89" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="11">
-        <v>122</v>
-      </c>
-      <c r="C90" s="5">
-        <v>7510639.7977999998</v>
-      </c>
-      <c r="D90" s="5">
-        <v>4693477.4052999998</v>
-      </c>
-      <c r="E90" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="35"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="11">
-        <v>123</v>
-      </c>
-      <c r="C91" s="5">
-        <v>7510639.2822000002</v>
-      </c>
-      <c r="D91" s="5">
-        <v>4693477.0263</v>
-      </c>
-      <c r="E91" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="35"/>
-      <c r="H91" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="14">
-        <f>SUM(I84:I89)</f>
-        <v>49.24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D93" s="6"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D94" s="6"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-    </row>
-    <row r="95" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" s="23"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="18"/>
-    </row>
-    <row r="97" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="32">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30">
         <v>140</v>
       </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K100" s="1"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K82" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="G15:G26"/>
     <mergeCell ref="H15:H24"/>
     <mergeCell ref="I15:I24"/>
-    <mergeCell ref="J96:K97"/>
+    <mergeCell ref="J78:K79"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H96:I97"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H78:I79"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="G43:G57"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="H84:H89"/>
-    <mergeCell ref="I84:I89"/>
     <mergeCell ref="G29:G40"/>
     <mergeCell ref="H29:H38"/>
     <mergeCell ref="I29:I38"/>
+    <mergeCell ref="G61:G75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
